--- a/biology/Zoologie/Bachia_heteropa/Bachia_heteropa.xlsx
+++ b/biology/Zoologie/Bachia_heteropa/Bachia_heteropa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bachia heteropa est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bachia heteropa est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Venezuela, à Trinité-et-Tobago et à la Grenade[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Venezuela, à Trinité-et-Tobago et à la Grenade.
 Sa présence au Brésil est incertaine.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 novembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 novembre 2012) :
 Bachia heteropa alleni (Barbour, 1914)
 Bachia heteropa heteropa (Wiegmann, 1856)
 Bachia heteropa lineata Boulenger, 1903
@@ -578,7 +594,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbour, 1914 : A Contribution to the Zoögeography of the West Indies, with Especial Reference to Amphibians and Reptiles. Memoirs of the Museum of Comparative Zoölogy, vol. 44, no 2, p. 205-359 (texte intégral).
 Boulenger, 1903 : Descriptions of new lizards in the collection of the British Museum. Annals and magazine of natural history, sér. 7, vol. 12, p. 429-435 (texte intégral).
